--- a/3/output/bmi_segments_summary.xlsx
+++ b/3/output/bmi_segments_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,74 +539,89 @@
           <t>达标比例</t>
         </is>
       </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>预测达标孕周88%分位数</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>88%孕妇达标检测孕周</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>NIPT时点88%分位数(原始孕周)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>29.4%</t>
+          <t>21.2%</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[-1.471, -0.284]</t>
+          <t>[-0.196, 0.522]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-0.865</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-0.850</t>
+          <t>0.087</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[-1.077, -0.631]</t>
+          <t>[-0.047, 0.277]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[-1.529, -0.027]</t>
+          <t>[-0.939, 0.245]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>-0.617</t>
+          <t>-0.190</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-0.654</t>
+          <t>-0.066</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.354</t>
+          <t>0.289</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>-0.050</t>
+          <t>0.141</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>-0.0周</t>
+          <t>0.1周</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>14.3周</t>
+          <t>16.1周</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>16.6周</t>
+          <t>17.4周</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -616,7 +631,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>5.3%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -626,92 +641,95 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>97.3%</t>
+          <t>85.2%</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>低风险</t>
+          <t>中低风险</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>10-11周</t>
+          <t>11-12周</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>97.3%</t>
-        </is>
-      </c>
+          <t>85.2%</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>26.7%</t>
+          <t>22.7%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[-0.248, 1.210]</t>
+          <t>[-1.890, -0.660]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.305</t>
+          <t>-1.116</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.243</t>
+          <t>-1.073</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[0.021, 0.526]</t>
+          <t>[-1.317, -0.951]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[-1.297, 0.143]</t>
+          <t>[-0.519, 0.562]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>-0.520</t>
+          <t>0.064</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-0.513</t>
+          <t>0.054</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.328</t>
+          <t>0.214</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>-0.017</t>
+          <t>0.372</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-0.0周</t>
+          <t>0.4周</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>14.7周</t>
+          <t>17.1周</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>16.8周</t>
+          <t>18.4周</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -721,7 +739,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -731,92 +749,95 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>91.2%</t>
+          <t>93.1%</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>低风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>10-11周</t>
+          <t>12-13周</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>91.2%</t>
-        </is>
-      </c>
+          <t>93.1%</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>13.3%</t>
+          <t>5.9%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[-0.244, 1.127]</t>
+          <t>[1.325, 2.605]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.462</t>
+          <t>1.849</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.376</t>
+          <t>1.658</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[0.200, 0.804]</t>
+          <t>[1.561, 2.145]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[0.196, 1.497]</t>
+          <t>[0.001, 1.117]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.810</t>
+          <t>0.642</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.822</t>
+          <t>0.695</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.347</t>
+          <t>0.334</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>1.310</t>
+          <t>1.059</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>1.3周</t>
+          <t>1.1周</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>20.1周</t>
+          <t>19.5周</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>22.2周</t>
+          <t>21.2周</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -836,7 +857,7 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>58.8%</t>
+          <t>60.0%</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -851,77 +872,80 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>58.8%</t>
-        </is>
-      </c>
+          <t>60.0%</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>22.7%</t>
+          <t>7.1%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[-3.857, -0.319]</t>
+          <t>[-1.218, -0.571]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-0.876</t>
+          <t>-0.830</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-0.752</t>
+          <t>-0.766</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[-1.071, -0.606]</t>
+          <t>[-1.025, -0.619]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[0.090, 1.691]</t>
+          <t>[-1.687, -0.722]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.648</t>
+          <t>-1.144</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.649</t>
+          <t>-1.002</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0.329</t>
+          <t>0.348</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>1.129</t>
+          <t>-0.724</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>1.1周</t>
+          <t>-0.7周</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>19.5周</t>
+          <t>12.2周</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>21.4周</t>
+          <t>13.9周</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -931,7 +955,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>44.4%</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -941,87 +965,90 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>70.7%</t>
+          <t>83.3%</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>13-14周</t>
+          <t>10-11周</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>70.7%</t>
-        </is>
-      </c>
+          <t>83.3%</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[3.726, 4.845]</t>
+          <t>[2.935, 4.845]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.262</t>
+          <t>3.930</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.215</t>
+          <t>3.971</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[3.971, 4.530]</t>
+          <t>[3.528, 4.373]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[0.352, 0.561]</t>
+          <t>[-0.814, 0.587]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.433</t>
+          <t>0.040</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.384</t>
+          <t>0.194</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0.113</t>
+          <t>0.611</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0.544</t>
+          <t>0.551</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0.5周</t>
+          <t>0.6周</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>18.6周</t>
+          <t>17.0周</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -1046,7 +1073,7 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -1061,114 +1088,444 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>33.3%</t>
-        </is>
-      </c>
+          <t>25.0%</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>6.7%</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[1.312, 2.935]</t>
+          <t>[0.096, 0.874]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.881</t>
+          <t>0.370</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.658</t>
+          <t>0.358</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[1.523, 2.209]</t>
+          <t>[0.197, 0.426]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[0.133, 1.609]</t>
+          <t>[-2.227, -1.166]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.982</t>
+          <t>-1.697</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1.061</t>
+          <t>-1.564</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>0.430</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>1.560</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>1.6周</t>
-        </is>
-      </c>
+          <t>0.405</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>20.8周</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>23.2周</t>
-        </is>
-      </c>
+          <t>9.9周</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
+          <t>12.0周以内</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>87.5%</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>75.0%</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>低风险</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>10-11周</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>75.0%</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>-1.315</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>-1.3周</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>11.5周</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>61</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>23.9%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[-0.894, -0.221]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-0.547</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>-0.567</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>[-0.705, -0.361]</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>[-0.809, 0.117]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>-0.216</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>-0.152</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>0.209</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>0.067</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>0.1周</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>16.0周</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>17.1周</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
           <t>27.0周以内</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>0.0%</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>100.0%</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>52.9%</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>80.3%</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>中低风险</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>11-12周</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>80.3%</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[-3.857, -3.857]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-3.857</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>-3.857</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>[-3.857, -3.857]</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>[1.284, 1.284]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1.284</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>1.284</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>1.284</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>1.3周</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>22.1周</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>22.1周</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>27.0周以内</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>高风险</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>13-14周</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>52.9%</t>
-        </is>
-      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>36</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>14.1%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>[0.385, 1.312]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.819</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.804</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>[0.604, 1.036]</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>[-0.379, 0.696]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0.177</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>0.184</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>0.262</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0.540</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>0.5周</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>17.6周</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>19.0周</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>27.0周以内</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>72.2%</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>中风险</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>12-13周</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>72.2%</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
